--- a/data/sastra_data_encoded.xlsx
+++ b/data/sastra_data_encoded.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SEC_025, SEC_026, SEC_024</t>
+          <t>SEC_024, SEC_025, SEC_026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SEC_011, SEC_012, SEC_010</t>
+          <t>SEC_010, SEC_011, SEC_012</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SEC_014, SEC_015, SEC_016</t>
+          <t>SEC_019, SEC_020, SEC_021</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SEC_019, SEC_020, SEC_021, SEC_022, SEC_023</t>
+          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SEC_005, SEC_006, SEC_007, SEC_008, SEC_009</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SEC_019, SEC_020, SEC_021, SEC_022, SEC_023, SEC_014, SEC_015, SEC_016, SEC_018, SEC_027, SEC_025, SEC_026, SEC_024, SEC_017</t>
+          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_000, SEC_001, SEC_002, SEC_004, SEC_013, SEC_011, SEC_012, SEC_010, SEC_003</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5789,7 +5789,7 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr">
         <is>
-          <t>(1, 7), (1, 8), (4, 1), (4, 2)</t>
+          <t>(2, 7), (2, 8), (5, 1), (5, 2)</t>
         </is>
       </c>
     </row>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SEC_009, SEC_007, SEC_025, SEC_002, SEC_003, SEC_015, SEC_014, SEC_026, SEC_005, SEC_027, SEC_011, SEC_024, SEC_000, SEC_006</t>
+          <t>SEC_011, SEC_018, SEC_003, SEC_012, SEC_002, SEC_021, SEC_008, SEC_015, SEC_001, SEC_009, SEC_023</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>SEC_012, SEC_020, SEC_017, SEC_021, SEC_008, SEC_010, SEC_023, SEC_004, SEC_016, SEC_018, SEC_013, SEC_019, SEC_022, SEC_001</t>
+          <t>SEC_025, SEC_024, SEC_006, SEC_026, SEC_027, SEC_005, SEC_000, SEC_004, SEC_017, SEC_014, SEC_007, SEC_013, SEC_022, SEC_010, SEC_020, SEC_016, SEC_019</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SEC_021, SEC_002, SEC_024, SEC_016, SEC_000, SEC_006, SEC_007, SEC_011, SEC_003, SEC_027, SEC_026, SEC_013, SEC_005, SEC_008</t>
+          <t>SEC_024, SEC_011, SEC_006, SEC_018, SEC_012, SEC_000, SEC_004, SEC_021, SEC_014, SEC_007, SEC_008, SEC_020, SEC_001, SEC_023</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>SEC_020, SEC_022, SEC_001, SEC_015, SEC_023, SEC_010, SEC_025, SEC_017, SEC_004, SEC_014, SEC_019, SEC_012, SEC_018, SEC_009</t>
+          <t>SEC_025, SEC_026, SEC_003, SEC_027, SEC_005, SEC_002, SEC_017, SEC_015, SEC_013, SEC_022, SEC_010, SEC_016, SEC_009, SEC_019</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>SEC_025, SEC_022, SEC_013, SEC_019, SEC_024, SEC_005, SEC_018, SEC_003, SEC_007, SEC_014, SEC_006, SEC_023, SEC_002, SEC_011</t>
+          <t>SEC_011, SEC_018, SEC_027, SEC_005, SEC_000, SEC_021, SEC_017, SEC_007, SEC_008, SEC_015, SEC_013, SEC_020, SEC_016, SEC_001, SEC_009, SEC_019, SEC_023</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SEC_017, SEC_004, SEC_012, SEC_010, SEC_016, SEC_020, SEC_021, SEC_015, SEC_009, SEC_026, SEC_000, SEC_001, SEC_027, SEC_008</t>
+          <t>SEC_025, SEC_024, SEC_006, SEC_026, SEC_003, SEC_012, SEC_002, SEC_004, SEC_014, SEC_022, SEC_010</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SEC_010, SEC_006, SEC_000, SEC_002, SEC_021, SEC_026, SEC_027, SEC_022, SEC_007, SEC_023, SEC_015, SEC_011, SEC_004, SEC_019</t>
+          <t>SEC_025, SEC_024, SEC_026, SEC_002, SEC_004, SEC_017, SEC_007, SEC_022, SEC_010, SEC_020</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>SEC_017, SEC_009, SEC_020, SEC_025, SEC_012, SEC_003, SEC_001, SEC_018, SEC_024, SEC_005, SEC_014, SEC_016, SEC_013, SEC_008</t>
+          <t>SEC_011, SEC_006, SEC_018, SEC_003, SEC_027, SEC_012, SEC_005, SEC_000, SEC_021, SEC_014, SEC_008, SEC_015, SEC_013, SEC_016, SEC_001, SEC_009, SEC_019, SEC_023</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SEC_004, SEC_006, SEC_015, SEC_027, SEC_012, SEC_007, SEC_014, SEC_000, SEC_025, SEC_019, SEC_020, SEC_002, SEC_009, SEC_021</t>
+          <t>SEC_025, SEC_024, SEC_006, SEC_026, SEC_003, SEC_027, SEC_012, SEC_005, SEC_004, SEC_014, SEC_013, SEC_022, SEC_010, SEC_016, SEC_019</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>SEC_022, SEC_026, SEC_003, SEC_017, SEC_013, SEC_010, SEC_008, SEC_016, SEC_011, SEC_018, SEC_023, SEC_005, SEC_001, SEC_024</t>
+          <t>SEC_011, SEC_018, SEC_000, SEC_002, SEC_021, SEC_017, SEC_007, SEC_008, SEC_015, SEC_020, SEC_001, SEC_009, SEC_023</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
